--- a/_BIPLOTS/area4.xlsx
+++ b/_BIPLOTS/area4.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG3" t="n">
@@ -868,7 +868,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG4" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG5" t="n">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG6" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG7" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG8" t="n">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG10" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG12" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG13" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG14" t="n">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG16" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG17" t="n">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG18" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG20" t="n">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG21" t="n">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG22" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG24" t="n">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG25" t="n">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG28" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG29" t="n">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG30" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG31" t="n">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG33" t="n">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG34" t="n">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG36" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG37" t="n">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG38" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG39" t="n">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG41" t="n">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG42" t="n">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG43" t="n">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG45" t="n">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG47" t="n">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG49" t="n">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG50" t="n">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>mineralP2O5</t>
         </is>
       </c>
       <c r="AG51" t="n">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG52" t="n">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG56" t="n">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG58" t="n">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG59" t="n">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG60" t="n">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG62" t="n">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG63" t="n">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG64" t="n">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG65" t="n">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG66" t="n">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG67" t="n">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG68" t="n">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG69" t="n">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG70" t="n">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG71" t="n">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG72" t="n">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG73" t="n">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG74" t="n">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG75" t="n">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG76" t="n">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG77" t="n">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG81" t="n">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG83" t="n">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG85" t="n">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG86" t="n">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG87" t="n">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG88" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG89" t="n">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG90" t="n">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG91" t="n">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG93" t="n">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG94" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>mineralP2O5</t>
         </is>
       </c>
       <c r="AG95" t="n">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG96" t="n">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG97" t="n">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG99" t="n">
@@ -12020,7 +12020,7 @@
       </c>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG100" t="n">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG101" t="n">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG102" t="n">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG103" t="n">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG104" t="n">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG105" t="n">
@@ -12722,7 +12722,7 @@
       </c>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG106" t="n">
@@ -12839,7 +12839,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG107" t="n">
@@ -12960,7 +12960,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG108" t="n">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG109" t="n">
@@ -13190,7 +13190,7 @@
       </c>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG110" t="n">
@@ -13299,7 +13299,7 @@
       </c>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG111" t="n">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG112" t="n">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG113" t="n">
@@ -13646,7 +13646,7 @@
       </c>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG114" t="n">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG115" t="n">
@@ -13888,7 +13888,7 @@
       </c>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG116" t="n">
@@ -14005,7 +14005,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG117" t="n">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG118" t="n">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG119" t="n">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG120" t="n">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG121" t="n">
@@ -14828,7 +14828,7 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG124" t="n">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG125" t="n">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG126" t="n">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG127" t="n">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG128" t="n">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG130" t="n">
@@ -15631,7 +15631,7 @@
       </c>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG131" t="n">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG132" t="n">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG133" t="n">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG134" t="n">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG135" t="n">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG136" t="n">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG137" t="n">
@@ -16547,7 +16547,7 @@
       </c>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG139" t="n">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG141" t="n">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG142" t="n">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG143" t="n">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG145" t="n">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG146" t="n">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG147" t="n">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG148" t="n">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG149" t="n">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="AF153" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG153" t="n">
@@ -18294,7 +18294,7 @@
       </c>
       <c r="AF154" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG154" t="n">
@@ -18649,7 +18649,7 @@
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG157" t="n">
@@ -18762,7 +18762,7 @@
       </c>
       <c r="AF158" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG158" t="n">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="AF159" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG159" t="n">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG162" t="n">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="AF164" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG164" t="n">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="AF165" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG165" t="n">
@@ -19698,7 +19698,7 @@
       </c>
       <c r="AF166" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG166" t="n">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="AF168" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG168" t="n">
@@ -20037,7 +20037,7 @@
       </c>
       <c r="AF169" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG169" t="n">
@@ -20154,7 +20154,7 @@
       </c>
       <c r="AF170" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG170" t="n">
@@ -20388,7 +20388,7 @@
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG172" t="n">
@@ -20505,7 +20505,7 @@
       </c>
       <c r="AF173" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG173" t="n">
@@ -20626,7 +20626,7 @@
       </c>
       <c r="AF174" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG174" t="n">
@@ -21090,7 +21090,7 @@
       </c>
       <c r="AF178" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG178" t="n">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="AF179" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG179" t="n">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="AF181" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG181" t="n">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="AF183" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG183" t="n">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="AF184" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG184" t="n">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="AF186" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG186" t="n">
@@ -22486,7 +22486,7 @@
       </c>
       <c r="AF190" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG190" t="n">
@@ -22603,7 +22603,7 @@
       </c>
       <c r="AF191" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG191" t="n">
@@ -23192,7 +23192,7 @@
       </c>
       <c r="AF196" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG196" t="n">
@@ -23301,7 +23301,7 @@
       </c>
       <c r="AF197" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG197" t="n">
@@ -23414,7 +23414,7 @@
       </c>
       <c r="AF198" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG198" t="n">
@@ -23535,7 +23535,7 @@
       </c>
       <c r="AF199" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG199" t="n">
@@ -23882,7 +23882,7 @@
       </c>
       <c r="AF202" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG202" t="n">
@@ -24221,7 +24221,7 @@
       </c>
       <c r="AF205" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG205" t="n">
@@ -24334,7 +24334,7 @@
       </c>
       <c r="AF206" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG206" t="n">
@@ -24447,7 +24447,7 @@
       </c>
       <c r="AF207" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG207" t="n">
@@ -24564,7 +24564,7 @@
       </c>
       <c r="AF208" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG208" t="n">
@@ -24677,7 +24677,7 @@
       </c>
       <c r="AF209" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG209" t="n">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="AF210" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG210" t="n">
@@ -24907,7 +24907,7 @@
       </c>
       <c r="AF211" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG211" t="n">
@@ -25024,7 +25024,7 @@
       </c>
       <c r="AF212" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG212" t="n">
@@ -25141,7 +25141,7 @@
       </c>
       <c r="AF213" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG213" t="n">
@@ -25254,7 +25254,7 @@
       </c>
       <c r="AF214" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG214" t="n">
@@ -25371,7 +25371,7 @@
       </c>
       <c r="AF215" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG215" t="n">
@@ -25605,7 +25605,7 @@
       </c>
       <c r="AF217" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG217" t="n">
@@ -25847,7 +25847,7 @@
       </c>
       <c r="AF219" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG219" t="n">
@@ -26085,7 +26085,7 @@
       </c>
       <c r="AF221" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG221" t="n">
@@ -26198,7 +26198,7 @@
       </c>
       <c r="AF222" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG222" t="n">
@@ -26424,7 +26424,7 @@
       </c>
       <c r="AF224" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG224" t="n">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="AF226" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG226" t="n">
@@ -26767,7 +26767,7 @@
       </c>
       <c r="AF227" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG227" t="n">
@@ -26880,7 +26880,7 @@
       </c>
       <c r="AF228" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG228" t="n">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="AF230" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG230" t="n">
@@ -27219,7 +27219,7 @@
       </c>
       <c r="AF231" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG231" t="n">
@@ -27675,7 +27675,7 @@
       </c>
       <c r="AF235" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG235" t="n">
@@ -27905,7 +27905,7 @@
       </c>
       <c r="AF237" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG237" t="n">
@@ -28022,7 +28022,7 @@
       </c>
       <c r="AF238" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG238" t="n">
@@ -28135,7 +28135,7 @@
       </c>
       <c r="AF239" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG239" t="n">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="AF240" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG240" t="n">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="AF241" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG241" t="n">
@@ -28474,7 +28474,7 @@
       </c>
       <c r="AF242" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG242" t="n">
@@ -28708,7 +28708,7 @@
       </c>
       <c r="AF244" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG244" t="n">
@@ -28946,7 +28946,7 @@
       </c>
       <c r="AF246" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG246" t="n">
@@ -29527,7 +29527,7 @@
       </c>
       <c r="AF251" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG251" t="n">
@@ -29640,7 +29640,7 @@
       </c>
       <c r="AF252" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG252" t="n">
@@ -29753,7 +29753,7 @@
       </c>
       <c r="AF253" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG253" t="n">
@@ -29866,7 +29866,7 @@
       </c>
       <c r="AF254" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG254" t="n">
@@ -29979,7 +29979,7 @@
       </c>
       <c r="AF255" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG255" t="n">
@@ -30096,7 +30096,7 @@
       </c>
       <c r="AF256" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG256" t="n">
@@ -30334,7 +30334,7 @@
       </c>
       <c r="AF258" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG258" t="n">
@@ -30447,7 +30447,7 @@
       </c>
       <c r="AF259" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG259" t="n">
@@ -30681,7 +30681,7 @@
       </c>
       <c r="AF261" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG261" t="n">
@@ -30794,7 +30794,7 @@
       </c>
       <c r="AF262" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG262" t="n">
@@ -30915,7 +30915,7 @@
       </c>
       <c r="AF263" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG263" t="n">
@@ -31032,7 +31032,7 @@
       </c>
       <c r="AF264" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG264" t="n">
@@ -31141,7 +31141,7 @@
       </c>
       <c r="AF265" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG265" t="n">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="AF266" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG266" t="n">
@@ -31367,7 +31367,7 @@
       </c>
       <c r="AF267" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG267" t="n">
@@ -31484,7 +31484,7 @@
       </c>
       <c r="AF268" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG268" t="n">
@@ -31597,7 +31597,7 @@
       </c>
       <c r="AF269" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG269" t="n">
@@ -31944,7 +31944,7 @@
       </c>
       <c r="AF272" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG272" t="n">
@@ -32061,7 +32061,7 @@
       </c>
       <c r="AF273" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG273" t="n">
@@ -32174,7 +32174,7 @@
       </c>
       <c r="AF274" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG274" t="n">
@@ -32291,7 +32291,7 @@
       </c>
       <c r="AF275" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG275" t="n">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="AF276" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG276" t="n">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="AF277" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG277" t="n">
@@ -32638,7 +32638,7 @@
       </c>
       <c r="AF278" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG278" t="n">
@@ -32872,7 +32872,7 @@
       </c>
       <c r="AF280" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG280" t="n">
@@ -32989,7 +32989,7 @@
       </c>
       <c r="AF281" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG281" t="n">
@@ -33215,7 +33215,7 @@
       </c>
       <c r="AF283" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG283" t="n">
@@ -33328,7 +33328,7 @@
       </c>
       <c r="AF284" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG284" t="n">
@@ -33445,7 +33445,7 @@
       </c>
       <c r="AF285" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG285" t="n">
@@ -33679,7 +33679,7 @@
       </c>
       <c r="AF287" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG287" t="n">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="AF288" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG288" t="n">
@@ -34034,7 +34034,7 @@
       </c>
       <c r="AF290" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG290" t="n">
@@ -34151,7 +34151,7 @@
       </c>
       <c r="AF291" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG291" t="n">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="AF292" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG292" t="n">
@@ -34381,7 +34381,7 @@
       </c>
       <c r="AF293" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG293" t="n">
@@ -34974,7 +34974,7 @@
       </c>
       <c r="AF298" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG298" t="n">
@@ -35208,7 +35208,7 @@
       </c>
       <c r="AF300" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG300" t="n">
@@ -35442,7 +35442,7 @@
       </c>
       <c r="AF302" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG302" t="n">
@@ -35551,7 +35551,7 @@
       </c>
       <c r="AF303" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG303" t="n">
@@ -35664,7 +35664,7 @@
       </c>
       <c r="AF304" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG304" t="n">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="AF305" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG305" t="n">
@@ -36128,7 +36128,7 @@
       </c>
       <c r="AF308" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG308" t="n">
@@ -36475,7 +36475,7 @@
       </c>
       <c r="AF311" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG311" t="n">
@@ -36588,7 +36588,7 @@
       </c>
       <c r="AF312" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG312" t="n">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="AF314" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG314" t="n">
@@ -37060,7 +37060,7 @@
       </c>
       <c r="AF316" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG316" t="n">
@@ -37294,7 +37294,7 @@
       </c>
       <c r="AF318" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG318" t="n">
@@ -37407,7 +37407,7 @@
       </c>
       <c r="AF319" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG319" t="n">
@@ -37637,7 +37637,7 @@
       </c>
       <c r="AF321" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG321" t="n">
@@ -37750,7 +37750,7 @@
       </c>
       <c r="AF322" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG322" t="n">
@@ -37863,7 +37863,7 @@
       </c>
       <c r="AF323" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG323" t="n">
@@ -37972,7 +37972,7 @@
       </c>
       <c r="AF324" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG324" t="n">
@@ -38198,7 +38198,7 @@
       </c>
       <c r="AF326" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG326" t="n">
@@ -38432,7 +38432,7 @@
       </c>
       <c r="AF328" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG328" t="n">
@@ -38545,7 +38545,7 @@
       </c>
       <c r="AF329" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG329" t="n">
@@ -38654,7 +38654,7 @@
       </c>
       <c r="AF330" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG330" t="n">
@@ -39009,7 +39009,7 @@
       </c>
       <c r="AF333" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG333" t="n">
@@ -39126,7 +39126,7 @@
       </c>
       <c r="AF334" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG334" t="n">
@@ -39235,7 +39235,7 @@
       </c>
       <c r="AF335" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG335" t="n">
@@ -39465,7 +39465,7 @@
       </c>
       <c r="AF337" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG337" t="n">
@@ -39574,7 +39574,7 @@
       </c>
       <c r="AF338" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG338" t="n">
@@ -39691,7 +39691,7 @@
       </c>
       <c r="AF339" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG339" t="n">
@@ -39808,7 +39808,7 @@
       </c>
       <c r="AF340" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG340" t="n">
@@ -40389,7 +40389,7 @@
       </c>
       <c r="AF345" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>mineralP2O5</t>
         </is>
       </c>
       <c r="AG345" t="n">
@@ -40736,7 +40736,7 @@
       </c>
       <c r="AF348" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG348" t="n">
@@ -40845,7 +40845,7 @@
       </c>
       <c r="AF349" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG349" t="n">
@@ -41196,7 +41196,7 @@
       </c>
       <c r="AF352" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG352" t="n">
@@ -41317,7 +41317,7 @@
       </c>
       <c r="AF353" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG353" t="n">
@@ -41430,7 +41430,7 @@
       </c>
       <c r="AF354" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG354" t="n">
@@ -41547,7 +41547,7 @@
       </c>
       <c r="AF355" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG355" t="n">
@@ -41773,7 +41773,7 @@
       </c>
       <c r="AF357" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG357" t="n">
@@ -41886,7 +41886,7 @@
       </c>
       <c r="AF358" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG358" t="n">
@@ -42120,7 +42120,7 @@
       </c>
       <c r="AF360" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG360" t="n">
@@ -42237,7 +42237,7 @@
       </c>
       <c r="AF361" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG361" t="n">
@@ -42463,7 +42463,7 @@
       </c>
       <c r="AF363" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG363" t="n">
@@ -42572,7 +42572,7 @@
       </c>
       <c r="AF364" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG364" t="n">
@@ -42681,7 +42681,7 @@
       </c>
       <c r="AF365" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG365" t="n">
@@ -42798,7 +42798,7 @@
       </c>
       <c r="AF366" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG366" t="n">
@@ -42911,7 +42911,7 @@
       </c>
       <c r="AF367" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG367" t="n">
@@ -43028,7 +43028,7 @@
       </c>
       <c r="AF368" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG368" t="n">
@@ -43137,7 +43137,7 @@
       </c>
       <c r="AF369" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG369" t="n">
@@ -43250,7 +43250,7 @@
       </c>
       <c r="AF370" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG370" t="n">
@@ -43363,7 +43363,7 @@
       </c>
       <c r="AF371" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG371" t="n">
@@ -43476,7 +43476,7 @@
       </c>
       <c r="AF372" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG372" t="n">
@@ -43585,7 +43585,7 @@
       </c>
       <c r="AF373" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG373" t="n">
@@ -43694,7 +43694,7 @@
       </c>
       <c r="AF374" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG374" t="n">
@@ -43807,7 +43807,7 @@
       </c>
       <c r="AF375" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG375" t="n">
@@ -44037,7 +44037,7 @@
       </c>
       <c r="AF377" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG377" t="n">
@@ -44150,7 +44150,7 @@
       </c>
       <c r="AF378" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG378" t="n">
@@ -44267,7 +44267,7 @@
       </c>
       <c r="AF379" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG379" t="n">
@@ -44493,7 +44493,7 @@
       </c>
       <c r="AF381" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG381" t="n">
@@ -44719,7 +44719,7 @@
       </c>
       <c r="AF383" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG383" t="n">
@@ -44949,7 +44949,7 @@
       </c>
       <c r="AF385" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG385" t="n">
@@ -45183,7 +45183,7 @@
       </c>
       <c r="AF387" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG387" t="n">
@@ -45417,7 +45417,7 @@
       </c>
       <c r="AF389" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG389" t="n">
@@ -45655,7 +45655,7 @@
       </c>
       <c r="AF391" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG391" t="n">
@@ -45764,7 +45764,7 @@
       </c>
       <c r="AF392" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG392" t="n">
@@ -46111,7 +46111,7 @@
       </c>
       <c r="AF395" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG395" t="n">
@@ -46228,7 +46228,7 @@
       </c>
       <c r="AF396" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG396" t="n">
@@ -46337,7 +46337,7 @@
       </c>
       <c r="AF397" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG397" t="n">
@@ -46446,7 +46446,7 @@
       </c>
       <c r="AF398" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG398" t="n">
@@ -46559,7 +46559,7 @@
       </c>
       <c r="AF399" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG399" t="n">
@@ -46676,7 +46676,7 @@
       </c>
       <c r="AF400" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG400" t="n">
@@ -46789,7 +46789,7 @@
       </c>
       <c r="AF401" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG401" t="n">
@@ -46906,7 +46906,7 @@
       </c>
       <c r="AF402" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG402" t="n">
@@ -47019,7 +47019,7 @@
       </c>
       <c r="AF403" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG403" t="n">
@@ -47132,7 +47132,7 @@
       </c>
       <c r="AF404" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG404" t="n">
@@ -47362,7 +47362,7 @@
       </c>
       <c r="AF406" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG406" t="n">
@@ -47471,7 +47471,7 @@
       </c>
       <c r="AF407" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG407" t="n">
@@ -47701,7 +47701,7 @@
       </c>
       <c r="AF409" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG409" t="n">
@@ -47814,7 +47814,7 @@
       </c>
       <c r="AF410" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG410" t="n">
@@ -48040,7 +48040,7 @@
       </c>
       <c r="AF412" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG412" t="n">
@@ -48153,7 +48153,7 @@
       </c>
       <c r="AF413" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG413" t="n">
@@ -48270,7 +48270,7 @@
       </c>
       <c r="AF414" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG414" t="n">
@@ -48391,7 +48391,7 @@
       </c>
       <c r="AF415" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG415" t="n">
@@ -48508,7 +48508,7 @@
       </c>
       <c r="AF416" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG416" t="n">
@@ -48625,7 +48625,7 @@
       </c>
       <c r="AF417" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG417" t="n">
@@ -48734,7 +48734,7 @@
       </c>
       <c r="AF418" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG418" t="n">
@@ -48843,7 +48843,7 @@
       </c>
       <c r="AF419" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG419" t="n">
@@ -48952,7 +48952,7 @@
       </c>
       <c r="AF420" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG420" t="n">
@@ -49069,7 +49069,7 @@
       </c>
       <c r="AF421" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG421" t="n">
@@ -49182,7 +49182,7 @@
       </c>
       <c r="AF422" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG422" t="n">
@@ -49299,7 +49299,7 @@
       </c>
       <c r="AF423" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG423" t="n">
@@ -49416,7 +49416,7 @@
       </c>
       <c r="AF424" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG424" t="n">
@@ -49650,7 +49650,7 @@
       </c>
       <c r="AF426" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG426" t="n">
@@ -49880,7 +49880,7 @@
       </c>
       <c r="AF428" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG428" t="n">
@@ -49993,7 +49993,7 @@
       </c>
       <c r="AF429" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG429" t="n">
@@ -50106,7 +50106,7 @@
       </c>
       <c r="AF430" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG430" t="n">
@@ -50332,7 +50332,7 @@
       </c>
       <c r="AF432" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG432" t="n">
@@ -50796,7 +50796,7 @@
       </c>
       <c r="AF436" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG436" t="n">
@@ -51022,7 +51022,7 @@
       </c>
       <c r="AF438" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG438" t="n">
@@ -51369,7 +51369,7 @@
       </c>
       <c r="AF441" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG441" t="n">
@@ -51482,7 +51482,7 @@
       </c>
       <c r="AF442" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG442" t="n">
@@ -51595,7 +51595,7 @@
       </c>
       <c r="AF443" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG443" t="n">
@@ -51712,7 +51712,7 @@
       </c>
       <c r="AF444" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG444" t="n">
@@ -51821,7 +51821,7 @@
       </c>
       <c r="AF445" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG445" t="n">
@@ -51930,7 +51930,7 @@
       </c>
       <c r="AF446" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG446" t="n">
@@ -52152,7 +52152,7 @@
       </c>
       <c r="AF448" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG448" t="n">
@@ -52269,7 +52269,7 @@
       </c>
       <c r="AF449" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG449" t="n">
@@ -52604,7 +52604,7 @@
       </c>
       <c r="AF452" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG452" t="n">
@@ -52713,7 +52713,7 @@
       </c>
       <c r="AF453" t="inlineStr">
         <is>
-          <t>mineraloth</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG453" t="n">
@@ -52822,7 +52822,7 @@
       </c>
       <c r="AF454" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG454" t="n">
@@ -52935,7 +52935,7 @@
       </c>
       <c r="AF455" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG455" t="n">
@@ -53044,7 +53044,7 @@
       </c>
       <c r="AF456" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG456" t="n">
@@ -53157,7 +53157,7 @@
       </c>
       <c r="AF457" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG457" t="n">
@@ -53274,7 +53274,7 @@
       </c>
       <c r="AF458" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG458" t="n">
@@ -53508,7 +53508,7 @@
       </c>
       <c r="AF460" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG460" t="n">
@@ -53621,7 +53621,7 @@
       </c>
       <c r="AF461" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG461" t="n">
@@ -53734,7 +53734,7 @@
       </c>
       <c r="AF462" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG462" t="n">
@@ -53843,7 +53843,7 @@
       </c>
       <c r="AF463" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG463" t="n">
@@ -53956,7 +53956,7 @@
       </c>
       <c r="AF464" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG464" t="n">
@@ -54065,7 +54065,7 @@
       </c>
       <c r="AF465" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG465" t="n">
@@ -54182,7 +54182,7 @@
       </c>
       <c r="AF466" t="inlineStr">
         <is>
-          <t>oth</t>
+          <t>no_zero</t>
         </is>
       </c>
       <c r="AG466" t="n">
@@ -54303,7 +54303,7 @@
       </c>
       <c r="AF467" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>P2O5</t>
         </is>
       </c>
       <c r="AG467" t="n">

--- a/_BIPLOTS/area4.xlsx
+++ b/_BIPLOTS/area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF467"/>
+  <dimension ref="A1:AG467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>area</t>
         </is>
       </c>
@@ -637,7 +642,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -747,7 +757,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -857,7 +872,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -971,7 +991,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1081,7 +1106,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1191,7 +1221,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1301,7 +1336,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1415,7 +1455,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1529,7 +1574,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1643,7 +1693,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1757,7 +1812,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1875,7 +1935,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1993,7 +2058,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2103,7 +2173,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2213,7 +2288,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2331,7 +2411,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2445,7 +2530,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2559,7 +2649,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2669,7 +2764,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2783,7 +2883,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2893,7 +2998,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF22" t="n">
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3007,7 +3117,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3117,7 +3232,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3235,7 +3355,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF25" t="n">
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3349,7 +3474,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF26" t="n">
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3459,7 +3589,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF27" t="n">
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3565,7 +3700,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF28" t="n">
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3675,7 +3815,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3785,7 +3930,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3899,7 +4049,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF31" t="n">
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4013,7 +4168,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4131,7 +4291,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF33" t="n">
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4245,7 +4410,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4359,7 +4529,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF35" t="n">
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4473,7 +4648,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4587,7 +4767,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF37" t="n">
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4701,7 +4886,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF38" t="n">
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4815,7 +5005,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF39" t="n">
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4929,7 +5124,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF40" t="n">
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5039,7 +5239,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF41" t="n">
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5153,7 +5358,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF42" t="n">
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5267,7 +5477,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF43" t="n">
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5385,7 +5600,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF44" t="n">
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5503,7 +5723,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF45" t="n">
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5617,7 +5842,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF46" t="n">
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5727,7 +5957,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF47" t="n">
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5841,7 +6076,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF48" t="n">
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5947,7 +6187,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF49" t="n">
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6061,7 +6306,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF50" t="n">
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6179,7 +6429,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF51" t="n">
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6289,7 +6544,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF52" t="n">
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6407,7 +6667,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF53" t="n">
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6525,7 +6790,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF54" t="n">
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6635,7 +6905,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF55" t="n">
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6745,7 +7020,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF56" t="n">
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6859,7 +7139,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF57" t="n">
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6977,7 +7262,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF58" t="n">
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7095,7 +7385,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF59" t="n">
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7209,7 +7504,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF60" t="n">
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7327,7 +7627,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF61" t="n">
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7437,7 +7742,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF62" t="n">
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7547,7 +7857,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF63" t="n">
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7665,7 +7980,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF64" t="n">
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7775,7 +8095,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF65" t="n">
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7889,7 +8214,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF66" t="n">
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG66" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7995,7 +8325,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF67" t="n">
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8105,7 +8440,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF68" t="n">
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8223,7 +8563,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF69" t="n">
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8337,7 +8682,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF70" t="n">
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8455,7 +8805,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF71" t="n">
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8569,7 +8924,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF72" t="n">
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8687,7 +9047,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF73" t="n">
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8797,7 +9162,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF74" t="n">
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8903,7 +9273,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF75" t="n">
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9013,7 +9388,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF76" t="n">
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9123,7 +9503,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF77" t="n">
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG77" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9237,7 +9622,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF78" t="n">
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG78" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9351,7 +9741,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF79" t="n">
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9469,7 +9864,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF80" t="n">
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9579,7 +9979,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF81" t="n">
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG81" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9693,7 +10098,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF82" t="n">
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9807,7 +10217,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF83" t="n">
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9921,7 +10336,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF84" t="n">
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG84" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10039,7 +10459,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF85" t="n">
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10157,7 +10582,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF86" t="n">
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10267,7 +10697,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF87" t="n">
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10377,7 +10812,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF88" t="n">
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10483,7 +10923,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF89" t="n">
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10589,7 +11034,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF90" t="n">
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10703,7 +11153,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF91" t="n">
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG91" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10813,7 +11268,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF92" t="n">
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG92" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10923,7 +11383,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF93" t="n">
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11033,7 +11498,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF94" t="n">
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11147,7 +11617,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF95" t="n">
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG95" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11257,7 +11732,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF96" t="n">
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG96" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11375,7 +11855,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF97" t="n">
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG97" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11493,7 +11978,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF98" t="n">
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG98" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11603,7 +12093,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF99" t="n">
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG99" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11721,7 +12216,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF100" t="n">
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11839,7 +12339,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF101" t="n">
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11957,7 +12462,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF102" t="n">
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG102" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12067,7 +12577,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF103" t="n">
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12181,7 +12696,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF104" t="n">
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12291,7 +12811,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF105" t="n">
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12405,7 +12930,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF106" t="n">
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12519,7 +13049,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF107" t="n">
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12637,7 +13172,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF108" t="n">
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12751,7 +13291,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF109" t="n">
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12861,7 +13406,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF110" t="n">
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12967,7 +13517,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF111" t="n">
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13081,7 +13636,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF112" t="n">
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13191,7 +13751,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF113" t="n">
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG113" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13305,7 +13870,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF114" t="n">
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG114" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13423,7 +13993,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF115" t="n">
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG115" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13541,7 +14116,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF116" t="n">
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13655,7 +14235,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF117" t="n">
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13769,7 +14354,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF118" t="n">
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13883,7 +14473,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF119" t="n">
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13993,7 +14588,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF120" t="n">
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14111,7 +14711,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF121" t="n">
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG121" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14229,7 +14834,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF122" t="n">
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG122" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14347,7 +14957,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF123" t="n">
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG123" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14457,7 +15072,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF124" t="n">
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14567,7 +15187,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF125" t="n">
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14673,7 +15298,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF126" t="n">
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14787,7 +15417,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF127" t="n">
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14893,7 +15528,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF128" t="n">
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG128" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15011,7 +15651,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF129" t="n">
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG129" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15129,7 +15774,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF130" t="n">
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15239,7 +15889,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF131" t="n">
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG131" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15353,7 +16008,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF132" t="n">
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG132" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15463,7 +16123,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF133" t="n">
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15569,7 +16234,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF134" t="n">
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15687,7 +16357,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF135" t="n">
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15797,7 +16472,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF136" t="n">
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG136" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15911,7 +16591,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF137" t="n">
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16025,7 +16710,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF138" t="n">
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG138" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16131,7 +16821,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF139" t="n">
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG139" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16249,7 +16944,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF140" t="n">
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG140" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16363,7 +17063,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF141" t="n">
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16473,7 +17178,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF142" t="n">
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG142" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16591,7 +17301,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF143" t="n">
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG143" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16705,7 +17420,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF144" t="n">
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG144" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16815,7 +17535,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF145" t="n">
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG145" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16925,7 +17650,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF146" t="n">
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG146" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17035,7 +17765,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF147" t="n">
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG147" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17145,7 +17880,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF148" t="n">
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG148" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17255,7 +17995,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF149" t="n">
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG149" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17373,7 +18118,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF150" t="n">
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG150" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17491,7 +18241,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF151" t="n">
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG151" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17609,7 +18364,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF152" t="n">
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17723,7 +18483,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF153" t="n">
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG153" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17833,7 +18598,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF154" t="n">
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG154" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17947,7 +18717,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF155" t="n">
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG155" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18065,7 +18840,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF156" t="n">
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18179,7 +18959,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF157" t="n">
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18289,7 +19074,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF158" t="n">
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18395,7 +19185,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF159" t="n">
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18513,7 +19308,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF160" t="n">
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG160" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18627,7 +19427,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF161" t="n">
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG161" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18745,7 +19550,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF162" t="n">
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18863,7 +19673,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF163" t="n">
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG163" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18977,7 +19792,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF164" t="n">
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG164" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19087,7 +19907,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF165" t="n">
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG165" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19201,7 +20026,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF166" t="n">
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG166" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19311,7 +20141,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF167" t="n">
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19421,7 +20256,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF168" t="n">
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG168" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19531,7 +20371,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF169" t="n">
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG169" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19645,7 +20490,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF170" t="n">
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19763,7 +20613,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF171" t="n">
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG171" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19873,7 +20728,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF172" t="n">
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG172" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19987,7 +20847,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF173" t="n">
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG173" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20105,7 +20970,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF174" t="n">
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG174" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20219,7 +21089,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF175" t="n">
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG175" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20333,7 +21208,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF176" t="n">
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG176" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20447,7 +21327,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF177" t="n">
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG177" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20557,7 +21442,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF178" t="n">
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20671,7 +21561,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF179" t="n">
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG179" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20785,7 +21680,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF180" t="n">
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20895,7 +21795,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF181" t="n">
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG181" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21009,7 +21914,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF182" t="n">
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21119,7 +22029,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF183" t="n">
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG183" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21229,7 +22144,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF184" t="n">
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG184" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21347,7 +22267,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF185" t="n">
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG185" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21461,7 +22386,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF186" t="n">
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG186" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21579,7 +22509,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF187" t="n">
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21693,7 +22628,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF188" t="n">
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG188" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21807,7 +22747,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF189" t="n">
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG189" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21917,7 +22862,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF190" t="n">
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG190" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22031,7 +22981,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF191" t="n">
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG191" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22149,7 +23104,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF192" t="n">
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22263,7 +23223,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF193" t="n">
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG193" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22377,7 +23342,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF194" t="n">
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG194" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22491,7 +23461,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF195" t="n">
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22605,7 +23580,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF196" t="n">
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG196" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22711,7 +23691,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF197" t="n">
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG197" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22821,7 +23806,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF198" t="n">
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG198" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22939,7 +23929,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF199" t="n">
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG199" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23053,7 +24048,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF200" t="n">
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG200" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23167,7 +24167,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF201" t="n">
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG201" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23277,7 +24282,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF202" t="n">
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG202" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23387,7 +24397,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF203" t="n">
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG203" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23501,7 +24516,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF204" t="n">
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23607,7 +24627,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF205" t="n">
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG205" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23717,7 +24742,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF206" t="n">
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG206" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23827,7 +24857,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF207" t="n">
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG207" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23941,7 +24976,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF208" t="n">
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG208" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24051,7 +25091,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF209" t="n">
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG209" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24165,7 +25210,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF210" t="n">
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG210" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24275,7 +25325,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF211" t="n">
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG211" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24389,7 +25444,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF212" t="n">
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG212" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24503,7 +25563,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF213" t="n">
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG213" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24613,7 +25678,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF214" t="n">
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG214" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24727,7 +25797,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF215" t="n">
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG215" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24841,7 +25916,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF216" t="n">
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG216" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24955,7 +26035,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF217" t="n">
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG217" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25073,7 +26158,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF218" t="n">
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG218" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25191,7 +26281,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF219" t="n">
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG219" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25309,7 +26404,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF220" t="n">
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG220" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25423,7 +26523,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF221" t="n">
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG221" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25533,7 +26638,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF222" t="n">
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG222" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25647,7 +26757,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF223" t="n">
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG223" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25753,7 +26868,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF224" t="n">
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG224" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25867,7 +26987,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF225" t="n">
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG225" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25977,7 +27102,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF226" t="n">
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG226" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26087,7 +27217,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF227" t="n">
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG227" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26197,7 +27332,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF228" t="n">
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG228" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26307,7 +27447,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF229" t="n">
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG229" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26421,7 +27566,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF230" t="n">
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG230" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26527,7 +27677,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF231" t="n">
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG231" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26637,7 +27792,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF232" t="n">
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG232" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26751,7 +27911,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF233" t="n">
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG233" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26865,7 +28030,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF234" t="n">
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG234" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26971,7 +28141,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF235" t="n">
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG235" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27085,7 +28260,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF236" t="n">
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG236" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27195,7 +28375,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF237" t="n">
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG237" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27309,7 +28494,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF238" t="n">
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG238" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27419,7 +28609,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF239" t="n">
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG239" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27529,7 +28724,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF240" t="n">
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27639,7 +28839,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF241" t="n">
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG241" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27749,7 +28954,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF242" t="n">
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG242" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27867,7 +29077,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF243" t="n">
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG243" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27977,7 +29192,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF244" t="n">
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG244" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28091,7 +29311,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF245" t="n">
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG245" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28209,7 +29434,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF246" t="n">
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG246" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28323,7 +29553,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF247" t="n">
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG247" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28437,7 +29672,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF248" t="n">
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG248" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28551,7 +29791,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF249" t="n">
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG249" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28665,7 +29910,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF250" t="n">
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG250" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28775,7 +30025,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF251" t="n">
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG251" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28885,7 +30140,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF252" t="n">
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG252" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28995,7 +30255,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF253" t="n">
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG253" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29105,7 +30370,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF254" t="n">
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG254" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29215,7 +30485,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF255" t="n">
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG255" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29329,7 +30604,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF256" t="n">
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG256" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29447,7 +30727,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF257" t="n">
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG257" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29561,7 +30846,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF258" t="n">
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG258" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29671,7 +30961,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF259" t="n">
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG259" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29789,7 +31084,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF260" t="n">
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG260" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29899,7 +31199,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF261" t="n">
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG261" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30009,7 +31314,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF262" t="n">
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG262" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30127,7 +31437,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF263" t="n">
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG263" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30241,7 +31556,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF264" t="n">
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG264" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30347,7 +31667,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF265" t="n">
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG265" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30457,7 +31782,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF266" t="n">
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG266" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30567,7 +31897,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF267" t="n">
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG267" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30681,7 +32016,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF268" t="n">
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG268" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30791,7 +32131,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF269" t="n">
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG269" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30905,7 +32250,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF270" t="n">
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG270" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31023,7 +32373,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF271" t="n">
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG271" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31129,7 +32484,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF272" t="n">
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG272" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31243,7 +32603,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF273" t="n">
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG273" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31353,7 +32718,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF274" t="n">
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG274" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31467,7 +32837,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF275" t="n">
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG275" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31581,7 +32956,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF276" t="n">
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG276" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31695,7 +33075,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF277" t="n">
+      <c r="AF277" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG277" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31805,7 +33190,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF278" t="n">
+      <c r="AF278" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG278" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31923,7 +33313,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF279" t="n">
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG279" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32033,7 +33428,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF280" t="n">
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG280" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32147,7 +33547,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF281" t="n">
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG281" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32261,7 +33666,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF282" t="n">
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32367,7 +33777,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF283" t="n">
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG283" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32477,7 +33892,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF284" t="n">
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32591,7 +34011,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF285" t="n">
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG285" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32709,7 +34134,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF286" t="n">
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG286" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32819,7 +34249,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF287" t="n">
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG287" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32933,7 +34368,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF288" t="n">
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33051,7 +34491,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF289" t="n">
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG289" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33165,7 +34610,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF290" t="n">
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG290" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33279,7 +34729,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF291" t="n">
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG291" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33393,7 +34848,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF292" t="n">
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG292" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33503,7 +34963,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF293" t="n">
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG293" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33621,7 +35086,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF294" t="n">
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG294" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33739,7 +35209,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF295" t="n">
+      <c r="AF295" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG295" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33857,7 +35332,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF296" t="n">
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG296" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33971,7 +35451,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF297" t="n">
+      <c r="AF297" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG297" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34081,7 +35566,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF298" t="n">
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34195,7 +35685,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF299" t="n">
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG299" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34309,7 +35804,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF300" t="n">
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG300" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34427,7 +35927,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF301" t="n">
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG301" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34537,7 +36042,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF302" t="n">
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG302" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34643,7 +36153,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF303" t="n">
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG303" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34753,7 +36268,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF304" t="n">
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG304" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34867,7 +36387,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF305" t="n">
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG305" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34981,7 +36506,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF306" t="n">
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG306" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35095,7 +36625,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF307" t="n">
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG307" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35205,7 +36740,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF308" t="n">
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG308" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35315,7 +36855,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF309" t="n">
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG309" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35433,7 +36978,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF310" t="n">
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG310" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35543,7 +37093,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF311" t="n">
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG311" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35653,7 +37208,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF312" t="n">
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG312" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35771,7 +37331,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF313" t="n">
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG313" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35889,7 +37454,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF314" t="n">
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG314" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35999,7 +37569,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF315" t="n">
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG315" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36113,7 +37688,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF316" t="n">
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG316" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36231,7 +37811,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF317" t="n">
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG317" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36341,7 +37926,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF318" t="n">
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG318" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36451,7 +38041,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF319" t="n">
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG319" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36565,7 +38160,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF320" t="n">
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG320" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36675,7 +38275,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF321" t="n">
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG321" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36785,7 +38390,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF322" t="n">
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG322" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36895,7 +38505,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF323" t="n">
+      <c r="AF323" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG323" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37001,7 +38616,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF324" t="n">
+      <c r="AF324" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG324" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37115,7 +38735,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF325" t="n">
+      <c r="AF325" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG325" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37221,7 +38846,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF326" t="n">
+      <c r="AF326" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG326" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37339,7 +38969,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF327" t="n">
+      <c r="AF327" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG327" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37449,7 +39084,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF328" t="n">
+      <c r="AF328" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG328" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37559,7 +39199,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF329" t="n">
+      <c r="AF329" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG329" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37665,7 +39310,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF330" t="n">
+      <c r="AF330" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG330" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37783,7 +39433,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF331" t="n">
+      <c r="AF331" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG331" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37901,7 +39556,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF332" t="n">
+      <c r="AF332" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG332" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38011,7 +39671,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF333" t="n">
+      <c r="AF333" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG333" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38125,7 +39790,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF334" t="n">
+      <c r="AF334" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG334" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38231,7 +39901,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF335" t="n">
+      <c r="AF335" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG335" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38345,7 +40020,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF336" t="n">
+      <c r="AF336" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG336" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38455,7 +40135,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF337" t="n">
+      <c r="AF337" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG337" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38561,7 +40246,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF338" t="n">
+      <c r="AF338" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG338" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38675,7 +40365,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF339" t="n">
+      <c r="AF339" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG339" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38789,7 +40484,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF340" t="n">
+      <c r="AF340" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG340" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38903,7 +40603,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF341" t="n">
+      <c r="AF341" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG341" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39021,7 +40726,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF342" t="n">
+      <c r="AF342" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG342" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39131,7 +40841,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF343" t="n">
+      <c r="AF343" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG343" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39245,7 +40960,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF344" t="n">
+      <c r="AF344" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG344" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39355,7 +41075,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF345" t="n">
+      <c r="AF345" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG345" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39465,7 +41190,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF346" t="n">
+      <c r="AF346" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG346" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39583,7 +41313,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF347" t="n">
+      <c r="AF347" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG347" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39693,7 +41428,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF348" t="n">
+      <c r="AF348" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG348" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39799,7 +41539,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF349" t="n">
+      <c r="AF349" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG349" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39917,7 +41662,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF350" t="n">
+      <c r="AF350" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG350" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40031,7 +41781,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF351" t="n">
+      <c r="AF351" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG351" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40141,7 +41896,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF352" t="n">
+      <c r="AF352" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG352" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40259,7 +42019,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF353" t="n">
+      <c r="AF353" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG353" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40369,7 +42134,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF354" t="n">
+      <c r="AF354" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG354" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40483,7 +42253,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF355" t="n">
+      <c r="AF355" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG355" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40597,7 +42372,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF356" t="n">
+      <c r="AF356" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG356" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40703,7 +42483,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF357" t="n">
+      <c r="AF357" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG357" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40813,7 +42598,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF358" t="n">
+      <c r="AF358" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG358" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40931,7 +42721,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF359" t="n">
+      <c r="AF359" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG359" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41041,7 +42836,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF360" t="n">
+      <c r="AF360" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG360" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41155,7 +42955,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF361" t="n">
+      <c r="AF361" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG361" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41265,7 +43070,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF362" t="n">
+      <c r="AF362" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG362" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41375,7 +43185,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF363" t="n">
+      <c r="AF363" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG363" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41481,7 +43296,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF364" t="n">
+      <c r="AF364" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG364" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41587,7 +43407,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF365" t="n">
+      <c r="AF365" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG365" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41701,7 +43526,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF366" t="n">
+      <c r="AF366" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG366" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41811,7 +43641,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF367" t="n">
+      <c r="AF367" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG367" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41925,7 +43760,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF368" t="n">
+      <c r="AF368" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG368" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42031,7 +43871,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF369" t="n">
+      <c r="AF369" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG369" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42141,7 +43986,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF370" t="n">
+      <c r="AF370" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG370" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42251,7 +44101,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF371" t="n">
+      <c r="AF371" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG371" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42361,7 +44216,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF372" t="n">
+      <c r="AF372" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG372" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42467,7 +44327,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF373" t="n">
+      <c r="AF373" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG373" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42573,7 +44438,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF374" t="n">
+      <c r="AF374" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG374" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42683,7 +44553,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF375" t="n">
+      <c r="AF375" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG375" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42797,7 +44672,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF376" t="n">
+      <c r="AF376" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG376" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42907,7 +44787,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF377" t="n">
+      <c r="AF377" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG377" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43017,7 +44902,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF378" t="n">
+      <c r="AF378" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG378" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43131,7 +45021,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF379" t="n">
+      <c r="AF379" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG379" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43245,7 +45140,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF380" t="n">
+      <c r="AF380" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG380" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43351,7 +45251,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF381" t="n">
+      <c r="AF381" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG381" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43465,7 +45370,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF382" t="n">
+      <c r="AF382" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG382" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43571,7 +45481,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF383" t="n">
+      <c r="AF383" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG383" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43685,7 +45600,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF384" t="n">
+      <c r="AF384" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG384" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43795,7 +45715,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF385" t="n">
+      <c r="AF385" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG385" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43913,7 +45838,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF386" t="n">
+      <c r="AF386" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG386" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44023,7 +45953,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF387" t="n">
+      <c r="AF387" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG387" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44141,7 +46076,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF388" t="n">
+      <c r="AF388" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG388" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44251,7 +46191,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF389" t="n">
+      <c r="AF389" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG389" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44369,7 +46314,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF390" t="n">
+      <c r="AF390" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG390" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44483,7 +46433,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF391" t="n">
+      <c r="AF391" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG391" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44589,7 +46544,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF392" t="n">
+      <c r="AF392" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG392" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44699,7 +46659,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF393" t="n">
+      <c r="AF393" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG393" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44817,7 +46782,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF394" t="n">
+      <c r="AF394" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG394" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44927,7 +46897,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF395" t="n">
+      <c r="AF395" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG395" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45041,7 +47016,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF396" t="n">
+      <c r="AF396" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG396" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45147,7 +47127,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF397" t="n">
+      <c r="AF397" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG397" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45253,7 +47238,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF398" t="n">
+      <c r="AF398" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG398" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45363,7 +47353,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF399" t="n">
+      <c r="AF399" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG399" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45477,7 +47472,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF400" t="n">
+      <c r="AF400" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG400" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45587,7 +47587,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF401" t="n">
+      <c r="AF401" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG401" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45701,7 +47706,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF402" t="n">
+      <c r="AF402" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG402" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45811,7 +47821,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF403" t="n">
+      <c r="AF403" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG403" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45921,7 +47936,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF404" t="n">
+      <c r="AF404" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG404" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46035,7 +48055,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF405" t="n">
+      <c r="AF405" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG405" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46145,7 +48170,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF406" t="n">
+      <c r="AF406" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG406" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46251,7 +48281,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF407" t="n">
+      <c r="AF407" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG407" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46365,7 +48400,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF408" t="n">
+      <c r="AF408" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG408" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46475,7 +48515,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF409" t="n">
+      <c r="AF409" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG409" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46585,7 +48630,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF410" t="n">
+      <c r="AF410" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG410" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46699,7 +48749,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF411" t="n">
+      <c r="AF411" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG411" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46805,7 +48860,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF412" t="n">
+      <c r="AF412" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG412" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46915,7 +48975,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF413" t="n">
+      <c r="AF413" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG413" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47029,7 +49094,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF414" t="n">
+      <c r="AF414" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG414" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47147,7 +49217,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF415" t="n">
+      <c r="AF415" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG415" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47261,7 +49336,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF416" t="n">
+      <c r="AF416" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG416" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47375,7 +49455,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF417" t="n">
+      <c r="AF417" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG417" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47481,7 +49566,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF418" t="n">
+      <c r="AF418" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG418" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47587,7 +49677,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF419" t="n">
+      <c r="AF419" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG419" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47693,7 +49788,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF420" t="n">
+      <c r="AF420" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG420" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47807,7 +49907,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF421" t="n">
+      <c r="AF421" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG421" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47917,7 +50022,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF422" t="n">
+      <c r="AF422" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG422" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48031,7 +50141,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF423" t="n">
+      <c r="AF423" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG423" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48145,7 +50260,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF424" t="n">
+      <c r="AF424" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG424" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48263,7 +50383,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF425" t="n">
+      <c r="AF425" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG425" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48373,7 +50498,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF426" t="n">
+      <c r="AF426" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG426" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48487,7 +50617,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF427" t="n">
+      <c r="AF427" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG427" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48597,7 +50732,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF428" t="n">
+      <c r="AF428" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG428" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48707,7 +50847,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF429" t="n">
+      <c r="AF429" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG429" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48817,7 +50962,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF430" t="n">
+      <c r="AF430" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG430" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48927,7 +51077,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF431" t="n">
+      <c r="AF431" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG431" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49037,7 +51192,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF432" t="n">
+      <c r="AF432" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG432" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49151,7 +51311,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF433" t="n">
+      <c r="AF433" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG433" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49269,7 +51434,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF434" t="n">
+      <c r="AF434" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG434" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49379,7 +51549,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF435" t="n">
+      <c r="AF435" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG435" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49489,7 +51664,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF436" t="n">
+      <c r="AF436" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG436" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49599,7 +51779,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF437" t="n">
+      <c r="AF437" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG437" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49709,7 +51894,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF438" t="n">
+      <c r="AF438" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG438" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49823,7 +52013,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF439" t="n">
+      <c r="AF439" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG439" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49937,7 +52132,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF440" t="n">
+      <c r="AF440" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG440" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50047,7 +52247,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF441" t="n">
+      <c r="AF441" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG441" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50157,7 +52362,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF442" t="n">
+      <c r="AF442" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG442" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50267,7 +52477,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF443" t="n">
+      <c r="AF443" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG443" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50381,7 +52596,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF444" t="n">
+      <c r="AF444" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG444" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50487,7 +52707,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF445" t="n">
+      <c r="AF445" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG445" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50593,7 +52818,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF446" t="n">
+      <c r="AF446" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG446" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50703,7 +52933,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF447" t="n">
+      <c r="AF447" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG447" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50809,7 +53044,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF448" t="n">
+      <c r="AF448" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG448" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50923,7 +53163,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF449" t="n">
+      <c r="AF449" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG449" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51033,7 +53278,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF450" t="n">
+      <c r="AF450" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG450" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51143,7 +53393,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF451" t="n">
+      <c r="AF451" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG451" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51249,7 +53504,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF452" t="n">
+      <c r="AF452" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG452" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51355,7 +53615,12 @@
           <t>mineraloth</t>
         </is>
       </c>
-      <c r="AF453" t="n">
+      <c r="AF453" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG453" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51461,7 +53726,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF454" t="n">
+      <c r="AF454" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG454" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51571,7 +53841,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF455" t="n">
+      <c r="AF455" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG455" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51677,7 +53952,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF456" t="n">
+      <c r="AF456" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG456" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51787,7 +54067,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF457" t="n">
+      <c r="AF457" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG457" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51901,7 +54186,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF458" t="n">
+      <c r="AF458" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG458" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52011,7 +54301,12 @@
           <t>no_zero</t>
         </is>
       </c>
-      <c r="AF459" t="n">
+      <c r="AF459" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG459" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52129,7 +54424,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF460" t="n">
+      <c r="AF460" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG460" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52239,7 +54539,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF461" t="n">
+      <c r="AF461" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG461" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52349,7 +54654,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF462" t="n">
+      <c r="AF462" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AG462" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52455,7 +54765,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF463" t="n">
+      <c r="AF463" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG463" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52565,7 +54880,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF464" t="n">
+      <c r="AF464" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG464" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52671,7 +54991,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF465" t="n">
+      <c r="AF465" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG465" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52785,7 +55110,12 @@
           <t>oth</t>
         </is>
       </c>
-      <c r="AF466" t="n">
+      <c r="AF466" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG466" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52903,7 +55233,12 @@
           <t>mineral</t>
         </is>
       </c>
-      <c r="AF467" t="n">
+      <c r="AF467" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AG467" t="n">
         <v>4</v>
       </c>
     </row>

--- a/_BIPLOTS/area4.xlsx
+++ b/_BIPLOTS/area4.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG467"/>
+  <dimension ref="A1:AH467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>interval_fine</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>area</t>
         </is>
       </c>
@@ -647,7 +652,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -762,7 +772,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -877,7 +892,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -996,7 +1016,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1111,7 +1136,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1226,7 +1256,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1341,7 +1376,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1460,7 +1500,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1579,7 +1624,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1698,7 +1748,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1817,7 +1872,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1940,7 +2000,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2063,7 +2128,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2178,7 +2248,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2293,7 +2368,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2416,7 +2496,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2535,7 +2620,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2654,7 +2744,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2769,7 +2864,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2888,7 +2988,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3003,7 +3108,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3122,7 +3232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3237,7 +3352,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3360,7 +3480,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3479,7 +3604,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3594,7 +3724,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3705,7 +3840,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3820,7 +3960,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3935,7 +4080,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4054,7 +4204,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4173,7 +4328,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4296,7 +4456,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4415,7 +4580,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4534,7 +4704,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4653,7 +4828,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4772,7 +4952,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4891,7 +5076,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5010,7 +5200,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5129,7 +5324,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5244,7 +5444,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5363,7 +5568,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5482,7 +5692,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5605,7 +5820,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5728,7 +5948,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5847,7 +6072,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5962,7 +6192,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6081,7 +6316,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6192,7 +6432,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6311,7 +6556,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6434,7 +6684,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6549,7 +6804,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6672,7 +6932,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6795,7 +7060,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6910,7 +7180,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7025,7 +7300,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AG56" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7144,7 +7424,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AG57" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7267,7 +7552,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AG58" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7390,7 +7680,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AG59" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7509,7 +7804,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AG60" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7632,7 +7932,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7747,7 +8052,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7862,7 +8172,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AG63" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7985,7 +8300,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AG64" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8100,7 +8420,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AG65" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8219,7 +8544,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AG66" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH66" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8330,7 +8660,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AG67" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8445,7 +8780,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AG68" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH68" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8568,7 +8908,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AG69" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8687,7 +9032,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AG70" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH70" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8810,7 +9160,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8929,7 +9284,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9052,7 +9412,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9167,7 +9532,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG74" t="n">
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9278,7 +9648,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG75" t="n">
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9393,7 +9768,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG76" t="n">
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9508,7 +9888,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG77" t="n">
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH77" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9627,7 +10012,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG78" t="n">
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH78" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9746,7 +10136,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG79" t="n">
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9869,7 +10264,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG80" t="n">
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9984,7 +10384,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG81" t="n">
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH81" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10103,7 +10508,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG82" t="n">
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH82" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10222,7 +10632,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG83" t="n">
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10341,7 +10756,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG84" t="n">
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH84" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10464,7 +10884,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG85" t="n">
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH85" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10587,7 +11012,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG86" t="n">
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10702,7 +11132,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG87" t="n">
+      <c r="AG87" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10817,7 +11252,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG88" t="n">
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10928,7 +11368,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG89" t="n">
+      <c r="AG89" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11039,7 +11484,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG90" t="n">
+      <c r="AG90" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11158,7 +11608,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG91" t="n">
+      <c r="AG91" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH91" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11273,7 +11728,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG92" t="n">
+      <c r="AG92" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH92" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11388,7 +11848,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG93" t="n">
+      <c r="AG93" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11503,7 +11968,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG94" t="n">
+      <c r="AG94" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11622,7 +12092,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG95" t="n">
+      <c r="AG95" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH95" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11737,7 +12212,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG96" t="n">
+      <c r="AG96" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH96" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11860,7 +12340,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG97" t="n">
+      <c r="AG97" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH97" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11983,7 +12468,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG98" t="n">
+      <c r="AG98" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH98" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12098,7 +12588,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG99" t="n">
+      <c r="AG99" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH99" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12221,7 +12716,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG100" t="n">
+      <c r="AG100" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH100" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12344,7 +12844,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG101" t="n">
+      <c r="AG101" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12467,7 +12972,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG102" t="n">
+      <c r="AG102" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH102" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12582,7 +13092,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG103" t="n">
+      <c r="AG103" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12701,7 +13216,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG104" t="n">
+      <c r="AG104" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH104" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12816,7 +13336,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG105" t="n">
+      <c r="AG105" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12935,7 +13460,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG106" t="n">
+      <c r="AG106" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13054,7 +13584,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG107" t="n">
+      <c r="AG107" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13177,7 +13712,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG108" t="n">
+      <c r="AG108" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13296,7 +13836,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG109" t="n">
+      <c r="AG109" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH109" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13411,7 +13956,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG110" t="n">
+      <c r="AG110" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13522,7 +14072,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG111" t="n">
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13641,7 +14196,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG112" t="n">
+      <c r="AG112" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13756,7 +14316,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG113" t="n">
+      <c r="AG113" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH113" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13875,7 +14440,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG114" t="n">
+      <c r="AG114" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH114" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13998,7 +14568,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG115" t="n">
+      <c r="AG115" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH115" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14121,7 +14696,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG116" t="n">
+      <c r="AG116" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14240,7 +14820,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG117" t="n">
+      <c r="AG117" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH117" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14359,7 +14944,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG118" t="n">
+      <c r="AG118" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14478,7 +15068,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG119" t="n">
+      <c r="AG119" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14593,7 +15188,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG120" t="n">
+      <c r="AG120" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14716,7 +15316,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG121" t="n">
+      <c r="AG121" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH121" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14839,7 +15444,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG122" t="n">
+      <c r="AG122" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH122" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14962,7 +15572,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG123" t="n">
+      <c r="AG123" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH123" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15077,7 +15692,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG124" t="n">
+      <c r="AG124" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15192,7 +15812,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG125" t="n">
+      <c r="AG125" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH125" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15303,7 +15928,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG126" t="n">
+      <c r="AG126" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15422,7 +16052,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG127" t="n">
+      <c r="AG127" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15533,7 +16168,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG128" t="n">
+      <c r="AG128" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH128" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15656,7 +16296,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG129" t="n">
+      <c r="AG129" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH129" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15779,7 +16424,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG130" t="n">
+      <c r="AG130" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15894,7 +16544,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG131" t="n">
+      <c r="AG131" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH131" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16013,7 +16668,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG132" t="n">
+      <c r="AG132" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH132" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16128,7 +16788,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG133" t="n">
+      <c r="AG133" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16239,7 +16904,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG134" t="n">
+      <c r="AG134" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16362,7 +17032,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG135" t="n">
+      <c r="AG135" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH135" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16477,7 +17152,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG136" t="n">
+      <c r="AG136" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH136" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16596,7 +17276,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG137" t="n">
+      <c r="AG137" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16715,7 +17400,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG138" t="n">
+      <c r="AG138" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH138" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16826,7 +17516,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG139" t="n">
+      <c r="AG139" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH139" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16949,7 +17644,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG140" t="n">
+      <c r="AG140" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH140" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17068,7 +17768,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG141" t="n">
+      <c r="AG141" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17183,7 +17888,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG142" t="n">
+      <c r="AG142" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH142" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17306,7 +18016,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG143" t="n">
+      <c r="AG143" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH143" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17425,7 +18140,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG144" t="n">
+      <c r="AG144" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH144" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17540,7 +18260,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG145" t="n">
+      <c r="AG145" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH145" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17655,7 +18380,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG146" t="n">
+      <c r="AG146" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH146" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17770,7 +18500,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG147" t="n">
+      <c r="AG147" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH147" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17885,7 +18620,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG148" t="n">
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH148" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18000,7 +18740,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG149" t="n">
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH149" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18123,7 +18868,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG150" t="n">
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH150" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18246,7 +18996,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG151" t="n">
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH151" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18369,7 +19124,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG152" t="n">
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18488,7 +19248,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG153" t="n">
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH153" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18603,7 +19368,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG154" t="n">
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH154" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18722,7 +19492,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG155" t="n">
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH155" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18845,7 +19620,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG156" t="n">
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH156" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18964,7 +19744,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG157" t="n">
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19079,7 +19864,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG158" t="n">
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19190,7 +19980,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG159" t="n">
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19313,7 +20108,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG160" t="n">
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH160" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19432,7 +20232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG161" t="n">
+      <c r="AG161" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH161" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19555,7 +20360,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG162" t="n">
+      <c r="AG162" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19678,7 +20488,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG163" t="n">
+      <c r="AG163" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH163" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19797,7 +20612,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG164" t="n">
+      <c r="AG164" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH164" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19912,7 +20732,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG165" t="n">
+      <c r="AG165" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH165" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20031,7 +20856,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG166" t="n">
+      <c r="AG166" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH166" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20146,7 +20976,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG167" t="n">
+      <c r="AG167" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH167" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20261,7 +21096,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG168" t="n">
+      <c r="AG168" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH168" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20376,7 +21216,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG169" t="n">
+      <c r="AG169" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH169" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20495,7 +21340,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG170" t="n">
+      <c r="AG170" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20618,7 +21468,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG171" t="n">
+      <c r="AG171" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH171" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20733,7 +21588,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG172" t="n">
+      <c r="AG172" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH172" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20852,7 +21712,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG173" t="n">
+      <c r="AG173" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH173" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20975,7 +21840,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG174" t="n">
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH174" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21094,7 +21964,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG175" t="n">
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH175" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21213,7 +22088,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG176" t="n">
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH176" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21332,7 +22212,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG177" t="n">
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH177" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21447,7 +22332,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG178" t="n">
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21566,7 +22456,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG179" t="n">
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH179" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21685,7 +22580,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG180" t="n">
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH180" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21800,7 +22700,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG181" t="n">
+      <c r="AG181" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH181" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21919,7 +22824,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG182" t="n">
+      <c r="AG182" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22034,7 +22944,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG183" t="n">
+      <c r="AG183" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH183" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22149,7 +23064,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG184" t="n">
+      <c r="AG184" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH184" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22272,7 +23192,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG185" t="n">
+      <c r="AG185" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH185" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22391,7 +23316,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG186" t="n">
+      <c r="AG186" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH186" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22514,7 +23444,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG187" t="n">
+      <c r="AG187" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22633,7 +23568,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG188" t="n">
+      <c r="AG188" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH188" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22752,7 +23692,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG189" t="n">
+      <c r="AG189" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH189" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22867,7 +23812,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG190" t="n">
+      <c r="AG190" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH190" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22986,7 +23936,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG191" t="n">
+      <c r="AG191" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH191" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23109,7 +24064,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG192" t="n">
+      <c r="AG192" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH192" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23228,7 +24188,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG193" t="n">
+      <c r="AG193" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH193" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23347,7 +24312,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG194" t="n">
+      <c r="AG194" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH194" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23466,7 +24436,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG195" t="n">
+      <c r="AG195" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23585,7 +24560,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG196" t="n">
+      <c r="AG196" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH196" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23696,7 +24676,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG197" t="n">
+      <c r="AG197" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH197" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23811,7 +24796,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG198" t="n">
+      <c r="AG198" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH198" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23934,7 +24924,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG199" t="n">
+      <c r="AG199" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH199" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24053,7 +25048,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG200" t="n">
+      <c r="AG200" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH200" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24172,7 +25172,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG201" t="n">
+      <c r="AG201" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH201" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24287,7 +25292,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG202" t="n">
+      <c r="AG202" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH202" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24402,7 +25412,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG203" t="n">
+      <c r="AG203" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH203" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24521,7 +25536,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG204" t="n">
+      <c r="AG204" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24632,7 +25652,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG205" t="n">
+      <c r="AG205" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH205" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24747,7 +25772,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG206" t="n">
+      <c r="AG206" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH206" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24862,7 +25892,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG207" t="n">
+      <c r="AG207" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH207" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24981,7 +26016,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG208" t="n">
+      <c r="AG208" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH208" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25096,7 +26136,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG209" t="n">
+      <c r="AG209" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH209" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25215,7 +26260,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG210" t="n">
+      <c r="AG210" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH210" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25330,7 +26380,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG211" t="n">
+      <c r="AG211" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH211" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25449,7 +26504,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG212" t="n">
+      <c r="AG212" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH212" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25568,7 +26628,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG213" t="n">
+      <c r="AG213" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH213" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25683,7 +26748,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG214" t="n">
+      <c r="AG214" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH214" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25802,7 +26872,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG215" t="n">
+      <c r="AG215" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH215" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25921,7 +26996,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG216" t="n">
+      <c r="AG216" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH216" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26040,7 +27120,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG217" t="n">
+      <c r="AG217" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH217" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26163,7 +27248,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG218" t="n">
+      <c r="AG218" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH218" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26286,7 +27376,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG219" t="n">
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH219" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26409,7 +27504,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG220" t="n">
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH220" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26528,7 +27628,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG221" t="n">
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH221" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26643,7 +27748,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG222" t="n">
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH222" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26762,7 +27872,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG223" t="n">
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH223" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26873,7 +27988,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG224" t="n">
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH224" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26992,7 +28112,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG225" t="n">
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH225" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27107,7 +28232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG226" t="n">
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH226" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27222,7 +28352,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG227" t="n">
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH227" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27337,7 +28472,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG228" t="n">
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH228" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27452,7 +28592,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG229" t="n">
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH229" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27571,7 +28716,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG230" t="n">
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH230" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27682,7 +28832,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG231" t="n">
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH231" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27797,7 +28952,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG232" t="n">
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH232" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27916,7 +29076,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG233" t="n">
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH233" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28035,7 +29200,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG234" t="n">
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH234" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28146,7 +29316,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG235" t="n">
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH235" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28265,7 +29440,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG236" t="n">
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH236" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28380,7 +29560,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG237" t="n">
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH237" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28499,7 +29684,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG238" t="n">
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH238" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28614,7 +29804,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG239" t="n">
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH239" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28729,7 +29924,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG240" t="n">
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28844,7 +30044,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG241" t="n">
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH241" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28959,7 +30164,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG242" t="n">
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH242" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29082,7 +30292,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG243" t="n">
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH243" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29197,7 +30412,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG244" t="n">
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH244" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29316,7 +30536,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG245" t="n">
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH245" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29439,7 +30664,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG246" t="n">
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH246" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29558,7 +30788,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG247" t="n">
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH247" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29677,7 +30912,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG248" t="n">
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH248" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29796,7 +31036,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG249" t="n">
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH249" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29915,7 +31160,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG250" t="n">
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH250" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30030,7 +31280,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG251" t="n">
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH251" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30145,7 +31400,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG252" t="n">
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH252" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30260,7 +31520,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG253" t="n">
+      <c r="AG253" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH253" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30375,7 +31640,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG254" t="n">
+      <c r="AG254" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH254" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30490,7 +31760,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG255" t="n">
+      <c r="AG255" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH255" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30609,7 +31884,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG256" t="n">
+      <c r="AG256" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH256" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30732,7 +32012,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG257" t="n">
+      <c r="AG257" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH257" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30851,7 +32136,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG258" t="n">
+      <c r="AG258" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH258" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30966,7 +32256,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG259" t="n">
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH259" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31089,7 +32384,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG260" t="n">
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH260" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31204,7 +32504,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG261" t="n">
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH261" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31319,7 +32624,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG262" t="n">
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH262" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31442,7 +32752,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG263" t="n">
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH263" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31561,7 +32876,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG264" t="n">
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH264" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31672,7 +32992,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG265" t="n">
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH265" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31787,7 +33112,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG266" t="n">
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH266" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31902,7 +33232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG267" t="n">
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH267" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32021,7 +33356,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG268" t="n">
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH268" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32136,7 +33476,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG269" t="n">
+      <c r="AG269" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH269" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32255,7 +33600,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG270" t="n">
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH270" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32378,7 +33728,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG271" t="n">
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH271" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32489,7 +33844,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG272" t="n">
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH272" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32608,7 +33968,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG273" t="n">
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH273" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32723,7 +34088,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG274" t="n">
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH274" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32842,7 +34212,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG275" t="n">
+      <c r="AG275" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH275" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32961,7 +34336,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG276" t="n">
+      <c r="AG276" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH276" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33080,7 +34460,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG277" t="n">
+      <c r="AG277" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH277" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33195,7 +34580,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG278" t="n">
+      <c r="AG278" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH278" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33318,7 +34708,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG279" t="n">
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH279" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33433,7 +34828,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG280" t="n">
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH280" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33552,7 +34952,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG281" t="n">
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH281" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33671,7 +35076,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG282" t="n">
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33782,7 +35192,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG283" t="n">
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH283" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33897,7 +35312,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG284" t="n">
+      <c r="AG284" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH284" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34016,7 +35436,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG285" t="n">
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH285" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34139,7 +35564,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG286" t="n">
+      <c r="AG286" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH286" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34254,7 +35684,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG287" t="n">
+      <c r="AG287" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH287" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34373,7 +35808,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG288" t="n">
+      <c r="AG288" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34496,7 +35936,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG289" t="n">
+      <c r="AG289" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH289" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34615,7 +36060,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG290" t="n">
+      <c r="AG290" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH290" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34734,7 +36184,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG291" t="n">
+      <c r="AG291" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH291" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34853,7 +36308,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG292" t="n">
+      <c r="AG292" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH292" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34968,7 +36428,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG293" t="n">
+      <c r="AG293" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH293" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35091,7 +36556,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG294" t="n">
+      <c r="AG294" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH294" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35214,7 +36684,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG295" t="n">
+      <c r="AG295" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH295" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35337,7 +36812,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG296" t="n">
+      <c r="AG296" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH296" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35456,7 +36936,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG297" t="n">
+      <c r="AG297" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH297" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35571,7 +37056,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG298" t="n">
+      <c r="AG298" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35690,7 +37180,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG299" t="n">
+      <c r="AG299" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH299" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35809,7 +37304,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG300" t="n">
+      <c r="AG300" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH300" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35932,7 +37432,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG301" t="n">
+      <c r="AG301" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH301" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36047,7 +37552,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG302" t="n">
+      <c r="AG302" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH302" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36158,7 +37668,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG303" t="n">
+      <c r="AG303" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH303" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36273,7 +37788,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG304" t="n">
+      <c r="AG304" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH304" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36392,7 +37912,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG305" t="n">
+      <c r="AG305" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH305" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36511,7 +38036,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG306" t="n">
+      <c r="AG306" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH306" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36630,7 +38160,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG307" t="n">
+      <c r="AG307" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH307" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36745,7 +38280,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG308" t="n">
+      <c r="AG308" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH308" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36860,7 +38400,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG309" t="n">
+      <c r="AG309" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH309" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36983,7 +38528,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG310" t="n">
+      <c r="AG310" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH310" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37098,7 +38648,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG311" t="n">
+      <c r="AG311" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH311" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37213,7 +38768,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG312" t="n">
+      <c r="AG312" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH312" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37336,7 +38896,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG313" t="n">
+      <c r="AG313" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH313" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37459,7 +39024,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG314" t="n">
+      <c r="AG314" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH314" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37574,7 +39144,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG315" t="n">
+      <c r="AG315" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH315" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37693,7 +39268,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG316" t="n">
+      <c r="AG316" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH316" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37816,7 +39396,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG317" t="n">
+      <c r="AG317" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH317" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37931,7 +39516,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG318" t="n">
+      <c r="AG318" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH318" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38046,7 +39636,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG319" t="n">
+      <c r="AG319" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH319" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38165,7 +39760,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG320" t="n">
+      <c r="AG320" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH320" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38280,7 +39880,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG321" t="n">
+      <c r="AG321" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH321" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38395,7 +40000,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG322" t="n">
+      <c r="AG322" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH322" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38510,7 +40120,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG323" t="n">
+      <c r="AG323" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH323" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38621,7 +40236,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG324" t="n">
+      <c r="AG324" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH324" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38740,7 +40360,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG325" t="n">
+      <c r="AG325" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH325" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38851,7 +40476,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG326" t="n">
+      <c r="AG326" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH326" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38974,7 +40604,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG327" t="n">
+      <c r="AG327" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH327" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39089,7 +40724,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG328" t="n">
+      <c r="AG328" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH328" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39204,7 +40844,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG329" t="n">
+      <c r="AG329" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH329" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39315,7 +40960,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG330" t="n">
+      <c r="AG330" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH330" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39438,7 +41088,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG331" t="n">
+      <c r="AG331" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH331" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39561,7 +41216,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG332" t="n">
+      <c r="AG332" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH332" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39676,7 +41336,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG333" t="n">
+      <c r="AG333" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH333" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39795,7 +41460,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG334" t="n">
+      <c r="AG334" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH334" t="n">
         <v>4</v>
       </c>
     </row>
@@ -39906,7 +41576,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG335" t="n">
+      <c r="AG335" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH335" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40025,7 +41700,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG336" t="n">
+      <c r="AG336" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH336" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40140,7 +41820,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG337" t="n">
+      <c r="AG337" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH337" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40251,7 +41936,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG338" t="n">
+      <c r="AG338" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH338" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40370,7 +42060,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG339" t="n">
+      <c r="AG339" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH339" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40489,7 +42184,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG340" t="n">
+      <c r="AG340" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH340" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40608,7 +42308,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG341" t="n">
+      <c r="AG341" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH341" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40731,7 +42436,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG342" t="n">
+      <c r="AG342" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH342" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40846,7 +42556,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG343" t="n">
+      <c r="AG343" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH343" t="n">
         <v>4</v>
       </c>
     </row>
@@ -40965,7 +42680,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG344" t="n">
+      <c r="AG344" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH344" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41080,7 +42800,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG345" t="n">
+      <c r="AG345" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH345" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41195,7 +42920,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG346" t="n">
+      <c r="AG346" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH346" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41318,7 +43048,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG347" t="n">
+      <c r="AG347" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH347" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41433,7 +43168,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG348" t="n">
+      <c r="AG348" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH348" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41544,7 +43284,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG349" t="n">
+      <c r="AG349" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH349" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41667,7 +43412,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG350" t="n">
+      <c r="AG350" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH350" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41786,7 +43536,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG351" t="n">
+      <c r="AG351" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH351" t="n">
         <v>4</v>
       </c>
     </row>
@@ -41901,7 +43656,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG352" t="n">
+      <c r="AG352" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH352" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42024,7 +43784,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG353" t="n">
+      <c r="AG353" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH353" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42139,7 +43904,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG354" t="n">
+      <c r="AG354" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH354" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42258,7 +44028,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG355" t="n">
+      <c r="AG355" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH355" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42377,7 +44152,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG356" t="n">
+      <c r="AG356" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH356" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42488,7 +44268,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG357" t="n">
+      <c r="AG357" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH357" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42603,7 +44388,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG358" t="n">
+      <c r="AG358" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH358" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42726,7 +44516,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG359" t="n">
+      <c r="AG359" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH359" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42841,7 +44636,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG360" t="n">
+      <c r="AG360" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH360" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42960,7 +44760,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG361" t="n">
+      <c r="AG361" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH361" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43075,7 +44880,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG362" t="n">
+      <c r="AG362" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH362" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43190,7 +45000,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG363" t="n">
+      <c r="AG363" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH363" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43301,7 +45116,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG364" t="n">
+      <c r="AG364" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH364" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43412,7 +45232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG365" t="n">
+      <c r="AG365" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH365" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43531,7 +45356,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG366" t="n">
+      <c r="AG366" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH366" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43646,7 +45476,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG367" t="n">
+      <c r="AG367" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH367" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43765,7 +45600,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG368" t="n">
+      <c r="AG368" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH368" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43876,7 +45716,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG369" t="n">
+      <c r="AG369" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH369" t="n">
         <v>4</v>
       </c>
     </row>
@@ -43991,7 +45836,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG370" t="n">
+      <c r="AG370" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH370" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44106,7 +45956,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG371" t="n">
+      <c r="AG371" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH371" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44221,7 +46076,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG372" t="n">
+      <c r="AG372" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH372" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44332,7 +46192,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG373" t="n">
+      <c r="AG373" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH373" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44443,7 +46308,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG374" t="n">
+      <c r="AG374" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH374" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44558,7 +46428,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG375" t="n">
+      <c r="AG375" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH375" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44677,7 +46552,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG376" t="n">
+      <c r="AG376" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH376" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44792,7 +46672,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG377" t="n">
+      <c r="AG377" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH377" t="n">
         <v>4</v>
       </c>
     </row>
@@ -44907,7 +46792,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG378" t="n">
+      <c r="AG378" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH378" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45026,7 +46916,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG379" t="n">
+      <c r="AG379" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH379" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45145,7 +47040,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG380" t="n">
+      <c r="AG380" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH380" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45256,7 +47156,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG381" t="n">
+      <c r="AG381" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH381" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45375,7 +47280,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG382" t="n">
+      <c r="AG382" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH382" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45486,7 +47396,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG383" t="n">
+      <c r="AG383" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH383" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45605,7 +47520,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG384" t="n">
+      <c r="AG384" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH384" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45720,7 +47640,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG385" t="n">
+      <c r="AG385" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH385" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45843,7 +47768,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG386" t="n">
+      <c r="AG386" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH386" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45958,7 +47888,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG387" t="n">
+      <c r="AG387" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH387" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46081,7 +48016,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG388" t="n">
+      <c r="AG388" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH388" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46196,7 +48136,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG389" t="n">
+      <c r="AG389" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH389" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46319,7 +48264,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG390" t="n">
+      <c r="AG390" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH390" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46438,7 +48388,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG391" t="n">
+      <c r="AG391" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH391" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46549,7 +48504,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG392" t="n">
+      <c r="AG392" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH392" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46664,7 +48624,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG393" t="n">
+      <c r="AG393" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH393" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46787,7 +48752,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG394" t="n">
+      <c r="AG394" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH394" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46902,7 +48872,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG395" t="n">
+      <c r="AG395" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH395" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47021,7 +48996,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG396" t="n">
+      <c r="AG396" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH396" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47132,7 +49112,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG397" t="n">
+      <c r="AG397" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH397" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47243,7 +49228,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG398" t="n">
+      <c r="AG398" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH398" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47358,7 +49348,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG399" t="n">
+      <c r="AG399" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH399" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47477,7 +49472,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG400" t="n">
+      <c r="AG400" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH400" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47592,7 +49592,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG401" t="n">
+      <c r="AG401" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH401" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47711,7 +49716,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG402" t="n">
+      <c r="AG402" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH402" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47826,7 +49836,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG403" t="n">
+      <c r="AG403" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH403" t="n">
         <v>4</v>
       </c>
     </row>
@@ -47941,7 +49956,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG404" t="n">
+      <c r="AG404" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH404" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48060,7 +50080,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG405" t="n">
+      <c r="AG405" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH405" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48175,7 +50200,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG406" t="n">
+      <c r="AG406" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH406" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48286,7 +50316,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG407" t="n">
+      <c r="AG407" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH407" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48405,7 +50440,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG408" t="n">
+      <c r="AG408" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH408" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48520,7 +50560,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG409" t="n">
+      <c r="AG409" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH409" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48635,7 +50680,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG410" t="n">
+      <c r="AG410" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH410" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48754,7 +50804,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG411" t="n">
+      <c r="AG411" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH411" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48865,7 +50920,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG412" t="n">
+      <c r="AG412" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH412" t="n">
         <v>4</v>
       </c>
     </row>
@@ -48980,7 +51040,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG413" t="n">
+      <c r="AG413" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH413" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49099,7 +51164,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG414" t="n">
+      <c r="AG414" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH414" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49222,7 +51292,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG415" t="n">
+      <c r="AG415" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH415" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49341,7 +51416,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG416" t="n">
+      <c r="AG416" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH416" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49460,7 +51540,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG417" t="n">
+      <c r="AG417" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH417" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49571,7 +51656,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG418" t="n">
+      <c r="AG418" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH418" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49682,7 +51772,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG419" t="n">
+      <c r="AG419" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH419" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49793,7 +51888,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG420" t="n">
+      <c r="AG420" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH420" t="n">
         <v>4</v>
       </c>
     </row>
@@ -49912,7 +52012,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG421" t="n">
+      <c r="AG421" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH421" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50027,7 +52132,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG422" t="n">
+      <c r="AG422" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH422" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50146,7 +52256,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG423" t="n">
+      <c r="AG423" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH423" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50265,7 +52380,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG424" t="n">
+      <c r="AG424" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH424" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50388,7 +52508,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG425" t="n">
+      <c r="AG425" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH425" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50503,7 +52628,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG426" t="n">
+      <c r="AG426" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH426" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50622,7 +52752,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG427" t="n">
+      <c r="AG427" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH427" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50737,7 +52872,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG428" t="n">
+      <c r="AG428" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH428" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50852,7 +52992,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG429" t="n">
+      <c r="AG429" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH429" t="n">
         <v>4</v>
       </c>
     </row>
@@ -50967,7 +53112,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG430" t="n">
+      <c r="AG430" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH430" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51082,7 +53232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG431" t="n">
+      <c r="AG431" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH431" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51197,7 +53352,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG432" t="n">
+      <c r="AG432" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH432" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51316,7 +53476,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG433" t="n">
+      <c r="AG433" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH433" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51439,7 +53604,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG434" t="n">
+      <c r="AG434" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH434" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51554,7 +53724,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG435" t="n">
+      <c r="AG435" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH435" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51669,7 +53844,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG436" t="n">
+      <c r="AG436" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH436" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51784,7 +53964,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG437" t="n">
+      <c r="AG437" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH437" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51899,7 +54084,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG438" t="n">
+      <c r="AG438" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH438" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52018,7 +54208,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG439" t="n">
+      <c r="AG439" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH439" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52137,7 +54332,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG440" t="n">
+      <c r="AG440" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH440" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52252,7 +54452,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG441" t="n">
+      <c r="AG441" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH441" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52367,7 +54572,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG442" t="n">
+      <c r="AG442" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH442" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52482,7 +54692,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG443" t="n">
+      <c r="AG443" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH443" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52601,7 +54816,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG444" t="n">
+      <c r="AG444" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH444" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52712,7 +54932,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG445" t="n">
+      <c r="AG445" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH445" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52823,7 +55048,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG446" t="n">
+      <c r="AG446" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH446" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52938,7 +55168,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG447" t="n">
+      <c r="AG447" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH447" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53049,7 +55284,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG448" t="n">
+      <c r="AG448" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH448" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53168,7 +55408,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG449" t="n">
+      <c r="AG449" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH449" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53283,7 +55528,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG450" t="n">
+      <c r="AG450" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH450" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53398,7 +55648,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG451" t="n">
+      <c r="AG451" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH451" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53509,7 +55764,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG452" t="n">
+      <c r="AG452" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH452" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53620,7 +55880,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG453" t="n">
+      <c r="AG453" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH453" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53731,7 +55996,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG454" t="n">
+      <c r="AG454" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH454" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53846,7 +56116,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG455" t="n">
+      <c r="AG455" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH455" t="n">
         <v>4</v>
       </c>
     </row>
@@ -53957,7 +56232,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG456" t="n">
+      <c r="AG456" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH456" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54072,7 +56352,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG457" t="n">
+      <c r="AG457" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH457" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54191,7 +56476,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG458" t="n">
+      <c r="AG458" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH458" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54306,7 +56596,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG459" t="n">
+      <c r="AG459" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH459" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54429,7 +56724,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG460" t="n">
+      <c r="AG460" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH460" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54544,7 +56844,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG461" t="n">
+      <c r="AG461" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH461" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54659,7 +56964,12 @@
           <t>outside</t>
         </is>
       </c>
-      <c r="AG462" t="n">
+      <c r="AG462" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH462" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54770,7 +57080,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG463" t="n">
+      <c r="AG463" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH463" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54885,7 +57200,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG464" t="n">
+      <c r="AG464" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH464" t="n">
         <v>4</v>
       </c>
     </row>
@@ -54996,7 +57316,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG465" t="n">
+      <c r="AG465" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="AH465" t="n">
         <v>4</v>
       </c>
     </row>
@@ -55115,7 +57440,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG466" t="n">
+      <c r="AG466" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH466" t="n">
         <v>4</v>
       </c>
     </row>
@@ -55238,7 +57568,12 @@
           <t>inside</t>
         </is>
       </c>
-      <c r="AG467" t="n">
+      <c r="AG467" t="inlineStr">
+        <is>
+          <t>inside</t>
+        </is>
+      </c>
+      <c r="AH467" t="n">
         <v>4</v>
       </c>
     </row>
